--- a/agtechbioscience_companies.xlsx
+++ b/agtechbioscience_companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CB2AAE5-ADC6-46D5-AF7D-DDF82E5BA6D1}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E517E6-21F4-4D85-94CE-F11CA6E22A69}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="380" windowWidth="19100" windowHeight="19640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16340" yWindow="4390" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Private" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>Company Name</t>
   </si>
@@ -474,6 +474,24 @@
   </si>
   <si>
     <t>Rovensa Next</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>Ag Machine Manufacturing, Financial Services, AgTech, Other Heavy Machinery</t>
+  </si>
+  <si>
+    <t>Titan Machinery</t>
+  </si>
+  <si>
+    <t>TITN</t>
+  </si>
+  <si>
+    <t>Large dealer of CNH, other Ag/Construction machinery.</t>
+  </si>
+  <si>
+    <t>West Fargo, ND</t>
   </si>
 </sst>
 </file>
@@ -534,11 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,10 +575,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF9ECE1-1192-4F7A-A362-8E5BDDDCBEF2}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,251 +1066,277 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{EDF9ECE1-1192-4F7A-A362-8E5BDDDCBEF2}"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{16305E98-B431-43F6-BBED-D809218E24DD}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{16305E98-B431-43F6-BBED-D809218E24DD}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{5EEDAC8B-D6BB-48B6-8BF5-5F2CBDEAA993}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1304,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F401AFD-729A-4F79-8935-8E67AC8F13C5}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/agtechbioscience_companies.xlsx
+++ b/agtechbioscience_companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E517E6-21F4-4D85-94CE-F11CA6E22A69}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02B6501-239A-46DB-97B8-96B1744A7021}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="4390" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38780" yWindow="0" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Private" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
   <si>
     <t>Company Name</t>
   </si>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>West Fargo, ND</t>
+  </si>
+  <si>
+    <t>Alta Equipment Group, Inc</t>
+  </si>
+  <si>
+    <t>iPower</t>
+  </si>
+  <si>
+    <t>IPW</t>
+  </si>
+  <si>
+    <t>ALTG</t>
   </si>
 </sst>
 </file>
@@ -552,12 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -575,6 +586,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF9ECE1-1192-4F7A-A362-8E5BDDDCBEF2}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,265 +1093,281 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{EDF9ECE1-1192-4F7A-A362-8E5BDDDCBEF2}"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{16305E98-B431-43F6-BBED-D809218E24DD}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{5EEDAC8B-D6BB-48B6-8BF5-5F2CBDEAA993}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{16305E98-B431-43F6-BBED-D809218E24DD}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{5EEDAC8B-D6BB-48B6-8BF5-5F2CBDEAA993}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/agtechbioscience_companies.xlsx
+++ b/agtechbioscience_companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02B6501-239A-46DB-97B8-96B1744A7021}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F40431B4-7FC8-4B40-812A-474B1673E63F}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="0" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="630" windowWidth="17900" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Private" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
   <si>
     <t>Company Name</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>ALTG</t>
+  </si>
+  <si>
+    <t>AGCO</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
+    <t>FAMC</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF9ECE1-1192-4F7A-A362-8E5BDDDCBEF2}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1072,6 +1081,9 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
@@ -1218,6 +1230,9 @@
       <c r="B16" t="s">
         <v>73</v>
       </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="s">
         <v>75</v>
       </c>
@@ -1308,6 +1323,9 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
